--- a/kellekek.xlsx
+++ b/kellekek.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>bakancsok</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>szendós doboz</t>
+  </si>
+  <si>
+    <t>500 PLN letét Euroban</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -852,6 +855,11 @@
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/kellekek.xlsx
+++ b/kellekek.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>bakancsok</t>
   </si>
@@ -225,9 +225,6 @@
     <t>sajt</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>termosz</t>
   </si>
   <si>
@@ -241,6 +238,18 @@
   </si>
   <si>
     <t>500 PLN letét Euroban</t>
+  </si>
+  <si>
+    <t>hűtőtáska</t>
+  </si>
+  <si>
+    <t>pénztárca</t>
+  </si>
+  <si>
+    <t>tea/tej</t>
+  </si>
+  <si>
+    <t>xbox/controller/HDMI</t>
   </si>
 </sst>
 </file>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -712,7 +721,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -726,7 +735,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -825,7 +834,7 @@
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -836,7 +845,7 @@
         <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -851,15 +860,26 @@
       <c r="A22" t="s">
         <v>53</v>
       </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>54</v>
       </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/kellekek.xlsx
+++ b/kellekek.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>bakancsok</t>
   </si>
@@ -54,12 +54,6 @@
     <t>mackóalsó/felső</t>
   </si>
   <si>
-    <t>húzentróger</t>
-  </si>
-  <si>
-    <t>napszemüveg/síszemüveg</t>
-  </si>
-  <si>
     <t>kesztyűk/sál/sapkák</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
     <t>mosószer/öblítő</t>
   </si>
   <si>
-    <t>eü doboz/hólánc/tűoltó palack</t>
-  </si>
-  <si>
     <t>kávégép/vagy kotyogó</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>kisolló</t>
   </si>
   <si>
-    <t>sörbontó/dugóhúó</t>
-  </si>
-  <si>
     <t>power bank</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>szendós doboz</t>
   </si>
   <si>
-    <t>500 PLN letét Euroban</t>
-  </si>
-  <si>
     <t>hűtőtáska</t>
   </si>
   <si>
@@ -250,6 +235,27 @@
   </si>
   <si>
     <t>xbox/controller/HDMI</t>
+  </si>
+  <si>
+    <t>napszemüveg</t>
+  </si>
+  <si>
+    <t>navigáció</t>
+  </si>
+  <si>
+    <t>alap szerszámok a kocsiba</t>
+  </si>
+  <si>
+    <t>elosztó</t>
+  </si>
+  <si>
+    <t>kotyogó kávéfőző</t>
+  </si>
+  <si>
+    <t>eü doboz/hólánc/tűzoltó palack</t>
+  </si>
+  <si>
+    <t>sörbontó/dugóhúzó</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -617,13 +623,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -631,13 +637,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -645,13 +651,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -659,13 +665,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -673,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -687,13 +693,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -701,13 +707,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -715,13 +721,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -729,13 +735,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -743,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -754,132 +760,138 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>73</v>
+      <c r="C24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>75</v>
+      <c r="C25" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/kellekek.xlsx
+++ b/kellekek.xlsx
@@ -272,12 +272,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,8 +298,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -591,7 +598,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,13 +612,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
@@ -619,13 +626,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
@@ -633,13 +640,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
@@ -647,13 +654,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
@@ -661,13 +668,13 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
@@ -675,13 +682,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G6" t="s">
@@ -689,13 +696,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G7" t="s">
@@ -703,13 +710,13 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
@@ -717,13 +724,13 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
@@ -731,13 +738,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
@@ -745,152 +752,152 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
     </row>
